--- a/Control_logic_Programmer/Microcode.xlsx
+++ b/Control_logic_Programmer/Microcode.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="86">
   <si>
     <t xml:space="preserve">Instruction</t>
   </si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">PUSH Ra</t>
   </si>
   <si>
-    <t xml:space="preserve">RFout DECX Yin MDRen</t>
+    <t xml:space="preserve">RFout DECA Yin MDRen</t>
   </si>
   <si>
     <t xml:space="preserve">MDRen WRsel MEMsel Yout DSTsel RFin TCend</t>
@@ -136,7 +136,7 @@
     <t xml:space="preserve">POP Ra</t>
   </si>
   <si>
-    <t xml:space="preserve">MDRen WRsel MEMsel INCX Yin</t>
+    <t xml:space="preserve">MDRen WRsel MEMsel INCA Yin</t>
   </si>
   <si>
     <t xml:space="preserve">MDRen RFin DSTsel</t>
@@ -239,6 +239,21 @@
   </si>
   <si>
     <t xml:space="preserve">SHR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFout SCld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHR Ra Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RFout DSTsel Y=A Yin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHR Yout Yin SCdec GOTO6</t>
   </si>
   <si>
     <t xml:space="preserve">AND</t>
@@ -350,7 +365,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,16 +386,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -424,6 +439,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,9 +632,9 @@
   <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -659,12 +678,12 @@
       <c r="C2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -674,12 +693,12 @@
       <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -687,24 +706,24 @@
       <c r="C4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -716,15 +735,15 @@
       <c r="C6" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -736,13 +755,13 @@
       <c r="C7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -754,24 +773,24 @@
       <c r="C8" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -781,15 +800,17 @@
       <c r="C10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -799,13 +820,15 @@
       <c r="C11" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -815,13 +838,15 @@
       <c r="C12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -831,20 +856,22 @@
       <c r="C13" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="5"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -856,15 +883,15 @@
       <c r="C15" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -876,13 +903,13 @@
       <c r="C16" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -894,13 +921,13 @@
       <c r="C17" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -912,22 +939,22 @@
       <c r="C18" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="5"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -939,15 +966,15 @@
       <c r="C20" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -959,13 +986,13 @@
       <c r="C21" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -977,13 +1004,13 @@
       <c r="C22" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -995,21 +1022,23 @@
       <c r="C23" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
       <c r="G24" s="8"/>
     </row>
-    <row r="25" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1019,15 +1048,17 @@
       <c r="C25" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
@@ -1037,13 +1068,15 @@
       <c r="C26" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="6"/>
       <c r="H26" s="10"/>
     </row>
-    <row r="27" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1053,19 +1086,23 @@
       <c r="C27" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
       <c r="G28" s="8"/>
     </row>
-    <row r="29" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
         <v>25</v>
       </c>
@@ -1075,15 +1112,17 @@
       <c r="C29" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
@@ -1093,13 +1132,15 @@
       <c r="C30" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
         <v>25</v>
       </c>
@@ -1109,13 +1150,15 @@
       <c r="C31" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>25</v>
       </c>
@@ -1125,13 +1168,15 @@
       <c r="C32" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11" t="s">
         <v>25</v>
       </c>
@@ -1141,13 +1186,15 @@
       <c r="C33" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11" t="s">
         <v>25</v>
       </c>
@@ -1157,19 +1204,23 @@
       <c r="C34" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
@@ -1179,15 +1230,17 @@
       <c r="C36" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1197,13 +1250,15 @@
       <c r="C37" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
@@ -1213,13 +1268,15 @@
       <c r="C38" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="10"/>
     </row>
-    <row r="39" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
@@ -1229,13 +1286,15 @@
       <c r="C39" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="6"/>
       <c r="H39" s="10"/>
     </row>
-    <row r="40" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>35</v>
       </c>
@@ -1245,16 +1304,20 @@
       <c r="C40" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="6"/>
       <c r="H40" s="10"/>
     </row>
-    <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1267,15 +1330,15 @@
       <c r="C42" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6" t="s">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H42" s="5"/>
+      <c r="H42" s="7"/>
     </row>
     <row r="43" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
@@ -1287,13 +1350,13 @@
       <c r="C43" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="7"/>
       <c r="I43" s="1"/>
     </row>
     <row r="44" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1306,12 +1369,12 @@
       <c r="C44" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="6"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
     </row>
@@ -1325,12 +1388,12 @@
       <c r="C45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="6"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
@@ -1547,7 +1610,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="5" t="s">
         <v>42</v>
       </c>
       <c r="G59" s="16" t="s">
@@ -1567,7 +1630,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="5" t="s">
         <v>62</v>
       </c>
       <c r="G60" s="16"/>
@@ -1585,7 +1648,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="16"/>
@@ -1628,9 +1691,9 @@
       <c r="C64" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G64" s="16" t="s">
@@ -1647,9 +1710,9 @@
       <c r="C65" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G65" s="16"/>
@@ -1664,9 +1727,9 @@
       <c r="C66" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G66" s="16"/>
@@ -1681,9 +1744,9 @@
       <c r="C67" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G67" s="16"/>
@@ -1692,9 +1755,9 @@
       <c r="A68" s="4"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="7"/>
       <c r="G68" s="1"/>
     </row>
     <row r="69" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1707,12 +1770,12 @@
       <c r="C69" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>67</v>
       </c>
       <c r="H69" s="17"/>
@@ -1727,12 +1790,12 @@
       <c r="C70" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="6"/>
       <c r="H70" s="17"/>
     </row>
     <row r="71" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1745,12 +1808,12 @@
       <c r="C71" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5" t="s">
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="6"/>
       <c r="H71" s="17"/>
     </row>
     <row r="72" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1763,21 +1826,21 @@
       <c r="C72" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="7"/>
+      <c r="G72" s="6"/>
       <c r="H72" s="17"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="7"/>
       <c r="G73" s="8"/>
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
@@ -1792,9 +1855,9 @@
       <c r="C74" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5" t="s">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G74" s="16" t="s">
@@ -1813,9 +1876,9 @@
       <c r="C75" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="7" t="s">
         <v>71</v>
       </c>
       <c r="G75" s="16"/>
@@ -1832,9 +1895,9 @@
       <c r="C76" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="16"/>
@@ -1844,78 +1907,130 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="7"/>
       <c r="G77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="14"/>
+      <c r="B78" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="19" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="14"/>
+      <c r="A79" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B79" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="14"/>
+      <c r="A80" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="14"/>
+      <c r="A81" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B81" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="14"/>
+      <c r="A82" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="14"/>
+      <c r="A83" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>45</v>
@@ -1923,18 +2038,16 @@
       <c r="C85" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
       <c r="F85" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>45</v>
@@ -1942,16 +2055,14 @@
       <c r="C86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
       <c r="F86" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G86" s="16"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>45</v>
@@ -1959,16 +2070,14 @@
       <c r="C87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
       <c r="F87" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G87" s="16"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>45</v>
@@ -1976,8 +2085,6 @@
       <c r="C88" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
       <c r="F88" s="2" t="s">
         <v>15</v>
       </c>
@@ -1985,7 +2092,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>56</v>
@@ -1997,12 +2104,12 @@
         <v>23</v>
       </c>
       <c r="G90" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>56</v>
@@ -2011,13 +2118,13 @@
         <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G91" s="16"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>56</v>
@@ -2035,7 +2142,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>56</v>
@@ -2047,13 +2154,13 @@
         <v>47</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G93" s="16"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>56</v>
@@ -2067,7 +2174,7 @@
       <c r="G94" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="G10:G13"/>
@@ -2083,6 +2190,7 @@
     <mergeCell ref="G64:G67"/>
     <mergeCell ref="G69:G72"/>
     <mergeCell ref="G74:G76"/>
+    <mergeCell ref="G78:G83"/>
     <mergeCell ref="G85:G88"/>
     <mergeCell ref="G90:G94"/>
   </mergeCells>

--- a/Control_logic_Programmer/Microcode.xlsx
+++ b/Control_logic_Programmer/Microcode.xlsx
@@ -806,6 +806,78 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -814,83 +886,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1170,7 +1170,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F112" activeCellId="0" sqref="F112"/>
+      <selection pane="bottomLeft" activeCell="C107" activeCellId="0" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2914,7 +2914,7 @@
       <c r="G97" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H97" s="40"/>
+      <c r="H97" s="27"/>
     </row>
     <row r="98" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
@@ -2932,7 +2932,7 @@
         <v>46</v>
       </c>
       <c r="G98" s="8"/>
-      <c r="H98" s="41"/>
+      <c r="H98" s="29"/>
     </row>
     <row r="99" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
@@ -2950,7 +2950,7 @@
         <v>9</v>
       </c>
       <c r="G99" s="8"/>
-      <c r="H99" s="41"/>
+      <c r="H99" s="29"/>
     </row>
     <row r="100" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
@@ -2968,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="G100" s="8"/>
-      <c r="H100" s="41"/>
+      <c r="H100" s="29"/>
     </row>
     <row r="101" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
@@ -2986,7 +2986,7 @@
         <v>27</v>
       </c>
       <c r="G101" s="8"/>
-      <c r="H101" s="41"/>
+      <c r="H101" s="29"/>
     </row>
     <row r="102" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="14" t="s">
@@ -3004,7 +3004,7 @@
         <v>15</v>
       </c>
       <c r="G102" s="8"/>
-      <c r="H102" s="42"/>
+      <c r="H102" s="32"/>
     </row>
     <row r="103" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="11"/>
@@ -3033,7 +3033,7 @@
       <c r="G104" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H104" s="40"/>
+      <c r="H104" s="27"/>
     </row>
     <row r="105" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
@@ -3051,7 +3051,7 @@
         <v>46</v>
       </c>
       <c r="G105" s="8"/>
-      <c r="H105" s="41"/>
+      <c r="H105" s="29"/>
     </row>
     <row r="106" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
@@ -3069,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="G106" s="8"/>
-      <c r="H106" s="41"/>
+      <c r="H106" s="29"/>
     </row>
     <row r="107" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
@@ -3087,7 +3087,7 @@
         <v>50</v>
       </c>
       <c r="G107" s="8"/>
-      <c r="H107" s="41"/>
+      <c r="H107" s="29"/>
     </row>
     <row r="108" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
@@ -3105,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="G108" s="8"/>
-      <c r="H108" s="41"/>
+      <c r="H108" s="29"/>
     </row>
     <row r="109" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
@@ -3123,7 +3123,7 @@
         <v>9</v>
       </c>
       <c r="G109" s="8"/>
-      <c r="H109" s="41"/>
+      <c r="H109" s="29"/>
     </row>
     <row r="110" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
@@ -3141,7 +3141,7 @@
         <v>22</v>
       </c>
       <c r="G110" s="8"/>
-      <c r="H110" s="41"/>
+      <c r="H110" s="29"/>
     </row>
     <row r="111" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
@@ -3159,7 +3159,7 @@
         <v>51</v>
       </c>
       <c r="G111" s="8"/>
-      <c r="H111" s="41"/>
+      <c r="H111" s="29"/>
     </row>
     <row r="112" s="18" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
@@ -3177,7 +3177,7 @@
         <v>52</v>
       </c>
       <c r="G112" s="8"/>
-      <c r="H112" s="41"/>
+      <c r="H112" s="29"/>
     </row>
     <row r="113" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="14" t="s">
@@ -3195,7 +3195,7 @@
         <v>15</v>
       </c>
       <c r="G113" s="8"/>
-      <c r="H113" s="42"/>
+      <c r="H113" s="32"/>
     </row>
     <row r="114" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="H124" s="24"/>
     </row>
-    <row r="125" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="22" t="s">
         <v>55</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="H125" s="25"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="22" t="s">
         <v>55</v>
       </c>
@@ -3389,28 +3389,28 @@
         <v>14</v>
       </c>
       <c r="G126" s="8"/>
-      <c r="H126" s="44"/>
-    </row>
-    <row r="127" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H126" s="41"/>
+    </row>
+    <row r="127" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C127" s="45" t="s">
+      <c r="C127" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D127" s="45"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="46" t="s">
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="43" t="s">
         <v>15</v>
       </c>
       <c r="G127" s="8"/>
-      <c r="H127" s="47"/>
+      <c r="H127" s="44"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -3419,27 +3419,27 @@
       <c r="F128" s="2"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B129" s="48" t="s">
+      <c r="B129" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C129" s="48" t="s">
+      <c r="C129" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D129" s="48"/>
-      <c r="E129" s="48"/>
-      <c r="F129" s="49" t="s">
+      <c r="D129" s="45"/>
+      <c r="E129" s="45"/>
+      <c r="F129" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="G129" s="50" t="s">
+      <c r="G129" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="H129" s="51"/>
-    </row>
-    <row r="130" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H129" s="48"/>
+    </row>
+    <row r="130" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="22" t="s">
         <v>55</v>
       </c>
@@ -3451,13 +3451,13 @@
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
-      <c r="F130" s="52" t="s">
+      <c r="F130" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G130" s="50"/>
-      <c r="H130" s="53"/>
-    </row>
-    <row r="131" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G130" s="47"/>
+      <c r="H130" s="50"/>
+    </row>
+    <row r="131" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="22" t="s">
         <v>55</v>
       </c>
@@ -3469,13 +3469,13 @@
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
-      <c r="F131" s="52" t="s">
+      <c r="F131" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G131" s="50"/>
-      <c r="H131" s="53"/>
-    </row>
-    <row r="132" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G131" s="47"/>
+      <c r="H131" s="50"/>
+    </row>
+    <row r="132" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="22" t="s">
         <v>55</v>
       </c>
@@ -3487,31 +3487,31 @@
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
-      <c r="F132" s="52" t="s">
+      <c r="F132" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G132" s="50"/>
-      <c r="H132" s="53"/>
-    </row>
-    <row r="133" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G132" s="47"/>
+      <c r="H132" s="50"/>
+    </row>
+    <row r="133" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B133" s="45" t="s">
+      <c r="B133" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="45" t="s">
+      <c r="C133" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D133" s="45"/>
-      <c r="E133" s="45"/>
-      <c r="F133" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" s="50"/>
-      <c r="H133" s="54"/>
-    </row>
-    <row r="134" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G133" s="47"/>
+      <c r="H133" s="51"/>
+    </row>
+    <row r="134" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -3520,27 +3520,27 @@
       <c r="F134" s="2"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="B135" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D135" s="48"/>
-      <c r="E135" s="48"/>
-      <c r="F135" s="49" t="s">
+      <c r="D135" s="45"/>
+      <c r="E135" s="45"/>
+      <c r="F135" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G135" s="50" t="s">
+      <c r="G135" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="H135" s="55"/>
-    </row>
-    <row r="136" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H135" s="52"/>
+    </row>
+    <row r="136" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="22" t="s">
         <v>55</v>
       </c>
@@ -3552,13 +3552,13 @@
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
-      <c r="F136" s="52" t="s">
+      <c r="F136" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G136" s="50"/>
-      <c r="H136" s="44"/>
-    </row>
-    <row r="137" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G136" s="47"/>
+      <c r="H136" s="41"/>
+    </row>
+    <row r="137" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="22" t="s">
         <v>55</v>
       </c>
@@ -3570,13 +3570,13 @@
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="52" t="s">
+      <c r="F137" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G137" s="50"/>
-      <c r="H137" s="44"/>
-    </row>
-    <row r="138" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G137" s="47"/>
+      <c r="H137" s="41"/>
+    </row>
+    <row r="138" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="22" t="s">
         <v>55</v>
       </c>
@@ -3588,31 +3588,31 @@
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="52" t="s">
+      <c r="F138" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G138" s="50"/>
-      <c r="H138" s="44"/>
-    </row>
-    <row r="139" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G138" s="47"/>
+      <c r="H138" s="41"/>
+    </row>
+    <row r="139" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="45" t="s">
+      <c r="B139" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C139" s="45" t="s">
+      <c r="C139" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D139" s="45"/>
-      <c r="E139" s="45"/>
-      <c r="F139" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G139" s="50"/>
-      <c r="H139" s="56"/>
-    </row>
-    <row r="140" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D139" s="42"/>
+      <c r="E139" s="42"/>
+      <c r="F139" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="47"/>
+      <c r="H139" s="53"/>
+    </row>
+    <row r="140" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -3621,27 +3621,27 @@
       <c r="F140" s="2"/>
       <c r="G140" s="1"/>
     </row>
-    <row r="141" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B141" s="48" t="s">
+      <c r="B141" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C141" s="48" t="s">
+      <c r="C141" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D141" s="48"/>
-      <c r="E141" s="48"/>
-      <c r="F141" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G141" s="50" t="s">
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="H141" s="57"/>
-    </row>
-    <row r="142" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H141" s="54"/>
+    </row>
+    <row r="142" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="22" t="s">
         <v>55</v>
       </c>
@@ -3653,13 +3653,13 @@
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
-      <c r="F142" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" s="50"/>
-      <c r="H142" s="58"/>
-    </row>
-    <row r="143" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G142" s="47"/>
+      <c r="H142" s="55"/>
+    </row>
+    <row r="143" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="22" t="s">
         <v>55</v>
       </c>
@@ -3671,13 +3671,13 @@
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
-      <c r="F143" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G143" s="50"/>
-      <c r="H143" s="58"/>
-    </row>
-    <row r="144" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G143" s="47"/>
+      <c r="H143" s="55"/>
+    </row>
+    <row r="144" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="22" t="s">
         <v>55</v>
       </c>
@@ -3689,31 +3689,31 @@
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
-      <c r="F144" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" s="50"/>
-      <c r="H144" s="58"/>
-    </row>
-    <row r="145" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G144" s="47"/>
+      <c r="H144" s="55"/>
+    </row>
+    <row r="145" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B145" s="45" t="s">
+      <c r="B145" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C145" s="45" t="s">
+      <c r="C145" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D145" s="45"/>
-      <c r="E145" s="45"/>
-      <c r="F145" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G145" s="50"/>
-      <c r="H145" s="59"/>
-    </row>
-    <row r="146" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" s="47"/>
+      <c r="H145" s="56"/>
+    </row>
+    <row r="146" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -3722,7 +3722,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="1"/>
     </row>
-    <row r="147" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -3731,7 +3731,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="1"/>
     </row>
-    <row r="148" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -3740,7 +3740,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="1"/>
     </row>
-    <row r="149" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -3749,27 +3749,27 @@
       <c r="F149" s="2"/>
       <c r="G149" s="1"/>
     </row>
-    <row r="150" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B150" s="48" t="s">
+      <c r="B150" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C150" s="48" t="s">
+      <c r="C150" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D150" s="48"/>
-      <c r="E150" s="48"/>
+      <c r="D150" s="45"/>
+      <c r="E150" s="45"/>
       <c r="F150" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G150" s="50" t="s">
+      <c r="G150" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H150" s="55"/>
-    </row>
-    <row r="151" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H150" s="52"/>
+    </row>
+    <row r="151" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="22" t="s">
         <v>73</v>
       </c>
@@ -3784,10 +3784,10 @@
       <c r="F151" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G151" s="50"/>
-      <c r="H151" s="44"/>
-    </row>
-    <row r="152" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G151" s="47"/>
+      <c r="H151" s="41"/>
+    </row>
+    <row r="152" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="22" t="s">
         <v>73</v>
       </c>
@@ -3802,28 +3802,28 @@
       <c r="F152" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G152" s="50"/>
-      <c r="H152" s="44"/>
-    </row>
-    <row r="153" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G152" s="47"/>
+      <c r="H152" s="41"/>
+    </row>
+    <row r="153" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B153" s="45" t="s">
+      <c r="B153" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C153" s="45" t="s">
+      <c r="C153" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D153" s="45"/>
-      <c r="E153" s="45"/>
-      <c r="F153" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" s="50"/>
-      <c r="H153" s="56"/>
-    </row>
-    <row r="154" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" s="47"/>
+      <c r="H153" s="53"/>
+    </row>
+    <row r="154" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -3832,27 +3832,27 @@
       <c r="F154" s="2"/>
       <c r="G154" s="1"/>
     </row>
-    <row r="155" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B155" s="48" t="s">
+      <c r="B155" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C155" s="48" t="s">
+      <c r="C155" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D155" s="48"/>
-      <c r="E155" s="48"/>
+      <c r="D155" s="45"/>
+      <c r="E155" s="45"/>
       <c r="F155" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G155" s="50" t="s">
+      <c r="G155" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="H155" s="57"/>
-    </row>
-    <row r="156" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H155" s="54"/>
+    </row>
+    <row r="156" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="22" t="s">
         <v>73</v>
       </c>
@@ -3867,10 +3867,10 @@
       <c r="F156" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G156" s="50"/>
-      <c r="H156" s="58"/>
-    </row>
-    <row r="157" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G156" s="47"/>
+      <c r="H156" s="55"/>
+    </row>
+    <row r="157" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="22" t="s">
         <v>73</v>
       </c>
@@ -3885,28 +3885,28 @@
       <c r="F157" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G157" s="50"/>
-      <c r="H157" s="58"/>
-    </row>
-    <row r="158" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G157" s="47"/>
+      <c r="H157" s="55"/>
+    </row>
+    <row r="158" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B158" s="45" t="s">
+      <c r="B158" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C158" s="45" t="s">
+      <c r="C158" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D158" s="45"/>
-      <c r="E158" s="45"/>
-      <c r="F158" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" s="50"/>
-      <c r="H158" s="59"/>
-    </row>
-    <row r="159" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" s="47"/>
+      <c r="H158" s="56"/>
+    </row>
+    <row r="159" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -3915,27 +3915,27 @@
       <c r="F159" s="2"/>
       <c r="G159" s="1"/>
     </row>
-    <row r="160" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B160" s="48" t="s">
+      <c r="B160" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C160" s="48" t="s">
+      <c r="C160" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D160" s="48"/>
-      <c r="E160" s="48"/>
+      <c r="D160" s="45"/>
+      <c r="E160" s="45"/>
       <c r="F160" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G160" s="50" t="s">
+      <c r="G160" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="H160" s="57"/>
-    </row>
-    <row r="161" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H160" s="54"/>
+    </row>
+    <row r="161" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="22" t="s">
         <v>73</v>
       </c>
@@ -3950,10 +3950,10 @@
       <c r="F161" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="50"/>
-      <c r="H161" s="58"/>
-    </row>
-    <row r="162" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G161" s="47"/>
+      <c r="H161" s="55"/>
+    </row>
+    <row r="162" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="22" t="s">
         <v>73</v>
       </c>
@@ -3968,28 +3968,28 @@
       <c r="F162" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G162" s="50"/>
-      <c r="H162" s="58"/>
-    </row>
-    <row r="163" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G162" s="47"/>
+      <c r="H162" s="55"/>
+    </row>
+    <row r="163" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B163" s="45" t="s">
+      <c r="B163" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C163" s="45" t="s">
+      <c r="C163" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D163" s="45"/>
-      <c r="E163" s="45"/>
-      <c r="F163" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" s="50"/>
-      <c r="H163" s="59"/>
-    </row>
-    <row r="164" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="47"/>
+      <c r="H163" s="56"/>
+    </row>
+    <row r="164" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -3998,27 +3998,27 @@
       <c r="F164" s="2"/>
       <c r="G164" s="1"/>
     </row>
-    <row r="165" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B165" s="48" t="s">
+      <c r="B165" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C165" s="48" t="s">
+      <c r="C165" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D165" s="48"/>
-      <c r="E165" s="48"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="45"/>
       <c r="F165" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G165" s="50" t="s">
+      <c r="G165" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="H165" s="57"/>
-    </row>
-    <row r="166" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H165" s="54"/>
+    </row>
+    <row r="166" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="22" t="s">
         <v>73</v>
       </c>
@@ -4033,10 +4033,10 @@
       <c r="F166" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G166" s="50"/>
-      <c r="H166" s="58"/>
-    </row>
-    <row r="167" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G166" s="47"/>
+      <c r="H166" s="55"/>
+    </row>
+    <row r="167" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="22" t="s">
         <v>73</v>
       </c>
@@ -4051,28 +4051,28 @@
       <c r="F167" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G167" s="50"/>
-      <c r="H167" s="58"/>
-    </row>
-    <row r="168" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G167" s="47"/>
+      <c r="H167" s="55"/>
+    </row>
+    <row r="168" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B168" s="45" t="s">
+      <c r="B168" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C168" s="45" t="s">
+      <c r="C168" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D168" s="45"/>
-      <c r="E168" s="45"/>
-      <c r="F168" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" s="50"/>
-      <c r="H168" s="59"/>
-    </row>
-    <row r="169" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D168" s="42"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G168" s="47"/>
+      <c r="H168" s="56"/>
+    </row>
+    <row r="169" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -4081,7 +4081,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="1"/>
     </row>
-    <row r="170" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -4090,7 +4090,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="1"/>
     </row>
-    <row r="171" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -4099,7 +4099,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="1"/>
     </row>
-    <row r="172" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -4108,7 +4108,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="1"/>
     </row>
-    <row r="173" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
         <v>78</v>
       </c>
@@ -4123,12 +4123,12 @@
       <c r="F173" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G173" s="50" t="s">
+      <c r="G173" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="H173" s="55"/>
-    </row>
-    <row r="174" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H173" s="52"/>
+    </row>
+    <row r="174" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="10" t="s">
         <v>78</v>
       </c>
@@ -4143,10 +4143,10 @@
       <c r="F174" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G174" s="50"/>
-      <c r="H174" s="44"/>
-    </row>
-    <row r="175" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G174" s="47"/>
+      <c r="H174" s="41"/>
+    </row>
+    <row r="175" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
         <v>78</v>
       </c>
@@ -4161,10 +4161,10 @@
       <c r="F175" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G175" s="50"/>
-      <c r="H175" s="44"/>
-    </row>
-    <row r="176" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G175" s="47"/>
+      <c r="H175" s="41"/>
+    </row>
+    <row r="176" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
         <v>78</v>
       </c>
@@ -4179,10 +4179,10 @@
       <c r="F176" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G176" s="50"/>
-      <c r="H176" s="56"/>
-    </row>
-    <row r="177" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G176" s="47"/>
+      <c r="H176" s="53"/>
+    </row>
+    <row r="177" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -4191,7 +4191,7 @@
       <c r="F177" s="13"/>
       <c r="G177" s="1"/>
     </row>
-    <row r="178" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
         <v>78</v>
       </c>
@@ -4206,12 +4206,12 @@
       <c r="F178" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G178" s="50" t="s">
+      <c r="G178" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="H178" s="57"/>
-    </row>
-    <row r="179" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H178" s="54"/>
+    </row>
+    <row r="179" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="10" t="s">
         <v>78</v>
       </c>
@@ -4226,10 +4226,10 @@
       <c r="F179" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G179" s="50"/>
-      <c r="H179" s="58"/>
-    </row>
-    <row r="180" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G179" s="47"/>
+      <c r="H179" s="55"/>
+    </row>
+    <row r="180" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="10" t="s">
         <v>78</v>
       </c>
@@ -4244,10 +4244,10 @@
       <c r="F180" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G180" s="50"/>
-      <c r="H180" s="58"/>
-    </row>
-    <row r="181" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G180" s="47"/>
+      <c r="H180" s="55"/>
+    </row>
+    <row r="181" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="14" t="s">
         <v>78</v>
       </c>
@@ -4262,10 +4262,10 @@
       <c r="F181" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G181" s="50"/>
-      <c r="H181" s="59"/>
-    </row>
-    <row r="182" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G181" s="47"/>
+      <c r="H181" s="56"/>
+    </row>
+    <row r="182" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -4274,7 +4274,7 @@
       <c r="F182" s="13"/>
       <c r="G182" s="1"/>
     </row>
-    <row r="183" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>78</v>
       </c>
@@ -4289,12 +4289,12 @@
       <c r="F183" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G183" s="50" t="s">
+      <c r="G183" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="H183" s="51"/>
-    </row>
-    <row r="184" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H183" s="48"/>
+    </row>
+    <row r="184" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="10" t="s">
         <v>78</v>
       </c>
@@ -4309,10 +4309,10 @@
       <c r="F184" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G184" s="50"/>
-      <c r="H184" s="53"/>
-    </row>
-    <row r="185" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G184" s="47"/>
+      <c r="H184" s="50"/>
+    </row>
+    <row r="185" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="10" t="s">
         <v>78</v>
       </c>
@@ -4327,10 +4327,10 @@
       <c r="F185" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="G185" s="50"/>
-      <c r="H185" s="53"/>
-    </row>
-    <row r="186" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G185" s="47"/>
+      <c r="H185" s="50"/>
+    </row>
+    <row r="186" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="10" t="s">
         <v>78</v>
       </c>
@@ -4345,10 +4345,10 @@
       <c r="F186" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G186" s="50"/>
-      <c r="H186" s="53"/>
-    </row>
-    <row r="187" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G186" s="47"/>
+      <c r="H186" s="50"/>
+    </row>
+    <row r="187" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="10" t="s">
         <v>78</v>
       </c>
@@ -4363,10 +4363,10 @@
       <c r="F187" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G187" s="50"/>
-      <c r="H187" s="53"/>
-    </row>
-    <row r="188" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G187" s="47"/>
+      <c r="H187" s="50"/>
+    </row>
+    <row r="188" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
         <v>78</v>
       </c>
@@ -4381,10 +4381,10 @@
       <c r="F188" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G188" s="50"/>
-      <c r="H188" s="54"/>
-    </row>
-    <row r="189" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G188" s="47"/>
+      <c r="H188" s="51"/>
+    </row>
+    <row r="189" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -4393,7 +4393,7 @@
       <c r="F189" s="13"/>
       <c r="G189" s="1"/>
     </row>
-    <row r="190" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>78</v>
       </c>
@@ -4408,12 +4408,12 @@
       <c r="F190" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G190" s="50" t="s">
+      <c r="G190" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="H190" s="57"/>
-    </row>
-    <row r="191" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H190" s="54"/>
+    </row>
+    <row r="191" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="10" t="s">
         <v>78</v>
       </c>
@@ -4428,10 +4428,10 @@
       <c r="F191" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G191" s="50"/>
-      <c r="H191" s="58"/>
-    </row>
-    <row r="192" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G191" s="47"/>
+      <c r="H191" s="55"/>
+    </row>
+    <row r="192" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="10" t="s">
         <v>78</v>
       </c>
@@ -4446,10 +4446,10 @@
       <c r="F192" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="50"/>
-      <c r="H192" s="58"/>
-    </row>
-    <row r="193" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G192" s="47"/>
+      <c r="H192" s="55"/>
+    </row>
+    <row r="193" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="10" t="s">
         <v>78</v>
       </c>
@@ -4464,10 +4464,10 @@
       <c r="F193" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G193" s="50"/>
-      <c r="H193" s="58"/>
-    </row>
-    <row r="194" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G193" s="47"/>
+      <c r="H193" s="55"/>
+    </row>
+    <row r="194" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="10" t="s">
         <v>78</v>
       </c>
@@ -4482,10 +4482,10 @@
       <c r="F194" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G194" s="50"/>
-      <c r="H194" s="58"/>
-    </row>
-    <row r="195" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G194" s="47"/>
+      <c r="H194" s="55"/>
+    </row>
+    <row r="195" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="14" t="s">
         <v>78</v>
       </c>
@@ -4500,10 +4500,10 @@
       <c r="F195" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G195" s="50"/>
-      <c r="H195" s="59"/>
-    </row>
-    <row r="196" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G195" s="47"/>
+      <c r="H195" s="56"/>
+    </row>
+    <row r="196" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -4512,7 +4512,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="1"/>
     </row>
-    <row r="197" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -4521,7 +4521,7 @@
       <c r="F197" s="13"/>
       <c r="G197" s="1"/>
     </row>
-    <row r="198" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -4530,7 +4530,7 @@
       <c r="F198" s="13"/>
       <c r="G198" s="1"/>
     </row>
-    <row r="199" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -4539,7 +4539,7 @@
       <c r="F199" s="13"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
         <v>86</v>
       </c>
@@ -4554,12 +4554,12 @@
       <c r="F200" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G200" s="50" t="s">
+      <c r="G200" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="H200" s="55"/>
-    </row>
-    <row r="201" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H200" s="52"/>
+    </row>
+    <row r="201" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="10" t="s">
         <v>86</v>
       </c>
@@ -4574,10 +4574,10 @@
       <c r="F201" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G201" s="50"/>
-      <c r="H201" s="44"/>
-    </row>
-    <row r="202" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G201" s="47"/>
+      <c r="H201" s="41"/>
+    </row>
+    <row r="202" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="14" t="s">
         <v>86</v>
       </c>
@@ -4592,10 +4592,10 @@
       <c r="F202" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G202" s="50"/>
-      <c r="H202" s="47"/>
-    </row>
-    <row r="203" s="43" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G202" s="47"/>
+      <c r="H202" s="44"/>
+    </row>
+    <row r="203" s="40" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -4615,15 +4615,15 @@
       <c r="C204" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="D204" s="60"/>
-      <c r="E204" s="60"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="57"/>
       <c r="F204" s="35" t="s">
         <v>15</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H204" s="40"/>
+      <c r="H204" s="58"/>
     </row>
     <row r="205" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="10" t="s">
@@ -4639,7 +4639,7 @@
         <v>15</v>
       </c>
       <c r="G205" s="8"/>
-      <c r="H205" s="41"/>
+      <c r="H205" s="59"/>
     </row>
     <row r="206" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="10" t="s">
@@ -4655,7 +4655,7 @@
         <v>15</v>
       </c>
       <c r="G206" s="8"/>
-      <c r="H206" s="41"/>
+      <c r="H206" s="59"/>
     </row>
     <row r="207" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="10" t="s">
@@ -4671,7 +4671,7 @@
         <v>15</v>
       </c>
       <c r="G207" s="8"/>
-      <c r="H207" s="41"/>
+      <c r="H207" s="59"/>
     </row>
     <row r="208" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="14" t="s">
@@ -4683,13 +4683,13 @@
       <c r="C208" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="D208" s="61"/>
-      <c r="E208" s="61"/>
+      <c r="D208" s="60"/>
+      <c r="E208" s="60"/>
       <c r="F208" s="38" t="s">
         <v>15</v>
       </c>
       <c r="G208" s="8"/>
-      <c r="H208" s="42"/>
+      <c r="H208" s="61"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="11"/>
@@ -4701,7 +4701,7 @@
       <c r="G209" s="18"/>
       <c r="H209" s="18"/>
     </row>
-    <row r="210" s="43" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" s="40" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
         <v>86</v>
       </c>
@@ -4719,7 +4719,7 @@
       <c r="G210" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="H210" s="51"/>
+      <c r="H210" s="48"/>
     </row>
     <row r="211" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="10" t="s">
@@ -4737,8 +4737,8 @@
         <v>9</v>
       </c>
       <c r="G211" s="39"/>
-      <c r="H211" s="53"/>
-      <c r="I211" s="43"/>
+      <c r="H211" s="50"/>
+      <c r="I211" s="40"/>
     </row>
     <row r="212" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="10" t="s">
@@ -4756,8 +4756,8 @@
         <v>83</v>
       </c>
       <c r="G212" s="39"/>
-      <c r="H212" s="53"/>
-      <c r="I212" s="43"/>
+      <c r="H212" s="50"/>
+      <c r="I212" s="40"/>
     </row>
     <row r="213" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="10" t="s">
@@ -4775,8 +4775,8 @@
         <v>84</v>
       </c>
       <c r="G213" s="39"/>
-      <c r="H213" s="53"/>
-      <c r="I213" s="43"/>
+      <c r="H213" s="50"/>
+      <c r="I213" s="40"/>
     </row>
     <row r="214" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="14" t="s">
@@ -4794,7 +4794,7 @@
         <v>15</v>
       </c>
       <c r="G214" s="62"/>
-      <c r="H214" s="54"/>
+      <c r="H214" s="51"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="11"/>
@@ -4819,7 +4819,7 @@
       <c r="F216" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G216" s="50" t="s">
+      <c r="G216" s="47" t="s">
         <v>91</v>
       </c>
       <c r="H216" s="63"/>
@@ -4839,7 +4839,7 @@
       <c r="F217" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G217" s="50"/>
+      <c r="G217" s="47"/>
       <c r="H217" s="64"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +4857,7 @@
       <c r="F218" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G218" s="50"/>
+      <c r="G218" s="47"/>
       <c r="H218" s="64"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,7 +4875,7 @@
       <c r="F219" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G219" s="50"/>
+      <c r="G219" s="47"/>
       <c r="H219" s="65"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +4925,7 @@
       <c r="F224" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G224" s="50" t="s">
+      <c r="G224" s="47" t="s">
         <v>94</v>
       </c>
       <c r="H224" s="66"/>
@@ -4945,7 +4945,7 @@
       <c r="F225" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="G225" s="50"/>
+      <c r="G225" s="47"/>
       <c r="H225" s="67"/>
     </row>
     <row r="226" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,7 +4963,7 @@
       <c r="F226" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="G226" s="50"/>
+      <c r="G226" s="47"/>
       <c r="H226" s="67"/>
     </row>
     <row r="227" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4983,7 +4983,7 @@
       <c r="F227" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="G227" s="50"/>
+      <c r="G227" s="47"/>
       <c r="H227" s="67"/>
     </row>
     <row r="228" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5003,7 +5003,7 @@
       <c r="F228" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G228" s="50"/>
+      <c r="G228" s="47"/>
       <c r="H228" s="67"/>
     </row>
     <row r="229" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,7 +5021,7 @@
       <c r="F229" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G229" s="50"/>
+      <c r="G229" s="47"/>
       <c r="H229" s="68"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5120,7 @@
       <c r="F236" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G236" s="50" t="s">
+      <c r="G236" s="47" t="s">
         <v>99</v>
       </c>
       <c r="H236" s="66"/>
@@ -5140,7 +5140,7 @@
       <c r="F237" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G237" s="50"/>
+      <c r="G237" s="47"/>
       <c r="H237" s="67"/>
     </row>
     <row r="238" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,7 +5158,7 @@
       <c r="F238" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="G238" s="50"/>
+      <c r="G238" s="47"/>
       <c r="H238" s="67"/>
     </row>
     <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,7 +5178,7 @@
       <c r="F239" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G239" s="50"/>
+      <c r="G239" s="47"/>
       <c r="H239" s="67"/>
     </row>
     <row r="240" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,7 +5198,7 @@
       <c r="F240" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G240" s="50"/>
+      <c r="G240" s="47"/>
       <c r="H240" s="67"/>
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5216,7 @@
       <c r="F241" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G241" s="50"/>
+      <c r="G241" s="47"/>
       <c r="H241" s="68"/>
     </row>
     <row r="242" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5644,18 +5644,18 @@
       <c r="A274" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B274" s="48" t="s">
+      <c r="B274" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C274" s="48" t="s">
+      <c r="C274" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D274" s="48"/>
-      <c r="E274" s="48"/>
-      <c r="F274" s="49" t="s">
+      <c r="D274" s="45"/>
+      <c r="E274" s="45"/>
+      <c r="F274" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G274" s="50" t="s">
+      <c r="G274" s="47" t="s">
         <v>110</v>
       </c>
       <c r="H274" s="74"/>
@@ -5670,10 +5670,10 @@
       <c r="C275" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F275" s="52" t="s">
+      <c r="F275" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="G275" s="50"/>
+      <c r="G275" s="47"/>
       <c r="H275" s="75"/>
     </row>
     <row r="276" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,46 +5686,46 @@
       <c r="C276" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F276" s="52" t="s">
+      <c r="F276" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G276" s="50"/>
+      <c r="G276" s="47"/>
       <c r="H276" s="75"/>
     </row>
     <row r="277" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B277" s="45" t="s">
+      <c r="B277" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C277" s="45" t="s">
+      <c r="C277" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D277" s="45"/>
-      <c r="E277" s="45"/>
-      <c r="F277" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G277" s="50"/>
-      <c r="H277" s="47"/>
+      <c r="D277" s="42"/>
+      <c r="E277" s="42"/>
+      <c r="F277" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G277" s="47"/>
+      <c r="H277" s="44"/>
     </row>
     <row r="279" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B279" s="48" t="s">
+      <c r="B279" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C279" s="48" t="s">
+      <c r="C279" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D279" s="48"/>
-      <c r="E279" s="48"/>
-      <c r="F279" s="49" t="s">
+      <c r="D279" s="45"/>
+      <c r="E279" s="45"/>
+      <c r="F279" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G279" s="50" t="s">
+      <c r="G279" s="47" t="s">
         <v>112</v>
       </c>
       <c r="H279" s="66"/>
@@ -5740,10 +5740,10 @@
       <c r="C280" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F280" s="52" t="s">
+      <c r="F280" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G280" s="50"/>
+      <c r="G280" s="47"/>
       <c r="H280" s="67"/>
     </row>
     <row r="281" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,10 +5756,10 @@
       <c r="C281" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F281" s="52" t="s">
+      <c r="F281" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G281" s="50"/>
+      <c r="G281" s="47"/>
       <c r="H281" s="67"/>
     </row>
     <row r="282" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5772,46 +5772,46 @@
       <c r="C282" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F282" s="52" t="s">
+      <c r="F282" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G282" s="50"/>
+      <c r="G282" s="47"/>
       <c r="H282" s="67"/>
     </row>
     <row r="283" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B283" s="45" t="s">
+      <c r="B283" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C283" s="45" t="s">
+      <c r="C283" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D283" s="45"/>
-      <c r="E283" s="45"/>
-      <c r="F283" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G283" s="50"/>
+      <c r="D283" s="42"/>
+      <c r="E283" s="42"/>
+      <c r="F283" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G283" s="47"/>
       <c r="H283" s="68"/>
     </row>
     <row r="285" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B285" s="48" t="s">
+      <c r="B285" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C285" s="48" t="s">
+      <c r="C285" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D285" s="48"/>
-      <c r="E285" s="48"/>
-      <c r="F285" s="49" t="s">
+      <c r="D285" s="45"/>
+      <c r="E285" s="45"/>
+      <c r="F285" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G285" s="50" t="s">
+      <c r="G285" s="47" t="s">
         <v>114</v>
       </c>
       <c r="H285" s="74"/>
@@ -5826,10 +5826,10 @@
       <c r="C286" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F286" s="52" t="s">
+      <c r="F286" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G286" s="50"/>
+      <c r="G286" s="47"/>
       <c r="H286" s="75"/>
     </row>
     <row r="287" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5842,10 +5842,10 @@
       <c r="C287" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F287" s="52" t="s">
+      <c r="F287" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="G287" s="50"/>
+      <c r="G287" s="47"/>
       <c r="H287" s="75"/>
     </row>
     <row r="288" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,29 +5858,29 @@
       <c r="C288" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F288" s="52" t="s">
+      <c r="F288" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G288" s="50"/>
+      <c r="G288" s="47"/>
       <c r="H288" s="75"/>
     </row>
     <row r="289" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="B289" s="45" t="s">
+      <c r="B289" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C289" s="45" t="s">
+      <c r="C289" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D289" s="45"/>
-      <c r="E289" s="45"/>
-      <c r="F289" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G289" s="50"/>
-      <c r="H289" s="47"/>
+      <c r="D289" s="42"/>
+      <c r="E289" s="42"/>
+      <c r="F289" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G289" s="47"/>
+      <c r="H289" s="44"/>
     </row>
     <row r="291" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="4" t="s">
@@ -5988,14 +5988,14 @@
       <c r="A297" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B297" s="45" t="s">
+      <c r="B297" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C297" s="45" t="s">
+      <c r="C297" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D297" s="45"/>
-      <c r="E297" s="45"/>
+      <c r="D297" s="42"/>
+      <c r="E297" s="42"/>
       <c r="F297" s="80" t="s">
         <v>15</v>
       </c>
@@ -6006,18 +6006,18 @@
       <c r="A302" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B302" s="48" t="s">
+      <c r="B302" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C302" s="48" t="s">
+      <c r="C302" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D302" s="48"/>
-      <c r="E302" s="48"/>
-      <c r="F302" s="49" t="s">
+      <c r="D302" s="45"/>
+      <c r="E302" s="45"/>
+      <c r="F302" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G302" s="50" t="s">
+      <c r="G302" s="47" t="s">
         <v>119</v>
       </c>
       <c r="H302" s="74"/>
@@ -6032,10 +6032,10 @@
       <c r="C303" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F303" s="52" t="s">
+      <c r="F303" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="G303" s="50"/>
+      <c r="G303" s="47"/>
       <c r="H303" s="75"/>
     </row>
     <row r="304" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6048,32 +6048,32 @@
       <c r="C304" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F304" s="52" t="s">
+      <c r="F304" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G304" s="50"/>
+      <c r="G304" s="47"/>
       <c r="H304" s="75"/>
     </row>
     <row r="305" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="B305" s="45" t="s">
+      <c r="B305" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C305" s="45" t="s">
+      <c r="C305" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D305" s="45"/>
-      <c r="E305" s="45"/>
-      <c r="F305" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G305" s="50"/>
-      <c r="H305" s="47"/>
+      <c r="D305" s="42"/>
+      <c r="E305" s="42"/>
+      <c r="F305" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G305" s="47"/>
+      <c r="H305" s="44"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F306" s="52"/>
+      <c r="F306" s="49"/>
     </row>
     <row r="307" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="4" t="s">
@@ -6082,15 +6082,15 @@
       <c r="B307" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C307" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D307" s="48"/>
-      <c r="E307" s="48"/>
-      <c r="F307" s="49" t="s">
+      <c r="C307" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D307" s="45"/>
+      <c r="E307" s="45"/>
+      <c r="F307" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G307" s="50" t="s">
+      <c r="G307" s="47" t="s">
         <v>121</v>
       </c>
       <c r="H307" s="66"/>
@@ -6105,10 +6105,10 @@
       <c r="C308" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F308" s="52" t="s">
+      <c r="F308" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G308" s="50"/>
+      <c r="G308" s="47"/>
       <c r="H308" s="67"/>
     </row>
     <row r="309" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6121,10 +6121,10 @@
       <c r="C309" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F309" s="52" t="s">
+      <c r="F309" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G309" s="50"/>
+      <c r="G309" s="47"/>
       <c r="H309" s="67"/>
     </row>
     <row r="310" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6137,10 +6137,10 @@
       <c r="C310" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F310" s="52" t="s">
+      <c r="F310" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G310" s="50"/>
+      <c r="G310" s="47"/>
       <c r="H310" s="67"/>
     </row>
     <row r="311" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6150,19 +6150,19 @@
       <c r="B311" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C311" s="45" t="s">
+      <c r="C311" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D311" s="45"/>
-      <c r="E311" s="45"/>
-      <c r="F311" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G311" s="50"/>
+      <c r="D311" s="42"/>
+      <c r="E311" s="42"/>
+      <c r="F311" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G311" s="47"/>
       <c r="H311" s="68"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F312" s="52"/>
+      <c r="F312" s="49"/>
     </row>
     <row r="313" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="20" t="s">
@@ -6171,15 +6171,15 @@
       <c r="B313" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C313" s="48" t="s">
+      <c r="C313" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D313" s="48"/>
-      <c r="E313" s="48"/>
-      <c r="F313" s="49" t="s">
+      <c r="D313" s="45"/>
+      <c r="E313" s="45"/>
+      <c r="F313" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G313" s="50" t="s">
+      <c r="G313" s="47" t="s">
         <v>123</v>
       </c>
       <c r="H313" s="74"/>
@@ -6194,10 +6194,10 @@
       <c r="C314" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F314" s="52" t="s">
+      <c r="F314" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G314" s="50"/>
+      <c r="G314" s="47"/>
       <c r="H314" s="75"/>
     </row>
     <row r="315" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,10 +6210,10 @@
       <c r="C315" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F315" s="52" t="s">
+      <c r="F315" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G315" s="50"/>
+      <c r="G315" s="47"/>
       <c r="H315" s="75"/>
     </row>
     <row r="316" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6226,10 +6226,10 @@
       <c r="C316" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F316" s="52" t="s">
+      <c r="F316" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G316" s="50"/>
+      <c r="G316" s="47"/>
       <c r="H316" s="75"/>
     </row>
     <row r="317" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6239,16 +6239,16 @@
       <c r="B317" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C317" s="45" t="s">
+      <c r="C317" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D317" s="45"/>
-      <c r="E317" s="45"/>
-      <c r="F317" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G317" s="50"/>
-      <c r="H317" s="47"/>
+      <c r="D317" s="42"/>
+      <c r="E317" s="42"/>
+      <c r="F317" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G317" s="47"/>
+      <c r="H317" s="44"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="33"/>
@@ -6267,15 +6267,15 @@
       <c r="B319" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C319" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D319" s="48"/>
-      <c r="E319" s="48"/>
-      <c r="F319" s="49" t="s">
+      <c r="C319" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D319" s="45"/>
+      <c r="E319" s="45"/>
+      <c r="F319" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G319" s="50" t="s">
+      <c r="G319" s="47" t="s">
         <v>124</v>
       </c>
       <c r="H319" s="66"/>
@@ -6290,10 +6290,10 @@
       <c r="C320" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F320" s="52" t="s">
+      <c r="F320" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G320" s="50"/>
+      <c r="G320" s="47"/>
       <c r="H320" s="67"/>
     </row>
     <row r="321" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6306,10 +6306,10 @@
       <c r="C321" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F321" s="52" t="s">
+      <c r="F321" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G321" s="50"/>
+      <c r="G321" s="47"/>
       <c r="H321" s="67"/>
     </row>
     <row r="322" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,10 +6322,10 @@
       <c r="C322" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F322" s="52" t="s">
+      <c r="F322" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G322" s="50"/>
+      <c r="G322" s="47"/>
       <c r="H322" s="67"/>
     </row>
     <row r="323" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6338,10 +6338,10 @@
       <c r="C323" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F323" s="52" t="s">
+      <c r="F323" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="G323" s="50"/>
+      <c r="G323" s="47"/>
       <c r="H323" s="67"/>
     </row>
     <row r="324" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6354,10 +6354,10 @@
       <c r="C324" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F324" s="52" t="s">
+      <c r="F324" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G324" s="50"/>
+      <c r="G324" s="47"/>
       <c r="H324" s="67"/>
     </row>
     <row r="325" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6367,15 +6367,15 @@
       <c r="B325" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C325" s="45" t="s">
+      <c r="C325" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D325" s="45"/>
-      <c r="E325" s="45"/>
-      <c r="F325" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G325" s="50"/>
+      <c r="D325" s="42"/>
+      <c r="E325" s="42"/>
+      <c r="F325" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G325" s="47"/>
       <c r="H325" s="68"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6422,18 +6422,18 @@
       <c r="A330" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B330" s="48" t="s">
+      <c r="B330" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C330" s="48" t="s">
+      <c r="C330" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D330" s="48"/>
-      <c r="E330" s="48"/>
-      <c r="F330" s="49" t="s">
+      <c r="D330" s="45"/>
+      <c r="E330" s="45"/>
+      <c r="F330" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="G330" s="50" t="s">
+      <c r="G330" s="47" t="s">
         <v>126</v>
       </c>
       <c r="H330" s="74"/>
@@ -6448,10 +6448,10 @@
       <c r="C331" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F331" s="52" t="s">
+      <c r="F331" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="G331" s="50"/>
+      <c r="G331" s="47"/>
       <c r="H331" s="75"/>
     </row>
     <row r="332" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6464,32 +6464,32 @@
       <c r="C332" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F332" s="52" t="s">
+      <c r="F332" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G332" s="50"/>
+      <c r="G332" s="47"/>
       <c r="H332" s="75"/>
     </row>
     <row r="333" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B333" s="45" t="s">
+      <c r="B333" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C333" s="45" t="s">
+      <c r="C333" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D333" s="45"/>
-      <c r="E333" s="45"/>
-      <c r="F333" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G333" s="50"/>
-      <c r="H333" s="47"/>
+      <c r="D333" s="42"/>
+      <c r="E333" s="42"/>
+      <c r="F333" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G333" s="47"/>
+      <c r="H333" s="44"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F334" s="52"/>
+      <c r="F334" s="49"/>
     </row>
     <row r="335" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="4" t="s">
@@ -6498,15 +6498,15 @@
       <c r="B335" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C335" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D335" s="48"/>
-      <c r="E335" s="48"/>
-      <c r="F335" s="49" t="s">
+      <c r="C335" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D335" s="45"/>
+      <c r="E335" s="45"/>
+      <c r="F335" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G335" s="50" t="s">
+      <c r="G335" s="47" t="s">
         <v>128</v>
       </c>
       <c r="H335" s="66"/>
@@ -6521,10 +6521,10 @@
       <c r="C336" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F336" s="52" t="s">
+      <c r="F336" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G336" s="50"/>
+      <c r="G336" s="47"/>
       <c r="H336" s="67"/>
     </row>
     <row r="337" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,10 +6537,10 @@
       <c r="C337" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F337" s="52" t="s">
+      <c r="F337" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="G337" s="50"/>
+      <c r="G337" s="47"/>
       <c r="H337" s="67"/>
     </row>
     <row r="338" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6558,7 +6558,7 @@
       <c r="F338" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="G338" s="50"/>
+      <c r="G338" s="47"/>
       <c r="H338" s="67"/>
     </row>
     <row r="339" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6568,19 +6568,19 @@
       <c r="B339" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C339" s="45" t="s">
+      <c r="C339" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D339" s="45"/>
-      <c r="E339" s="45"/>
-      <c r="F339" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G339" s="50"/>
+      <c r="D339" s="42"/>
+      <c r="E339" s="42"/>
+      <c r="F339" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G339" s="47"/>
       <c r="H339" s="68"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F340" s="52"/>
+      <c r="F340" s="49"/>
     </row>
     <row r="341" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="20" t="s">
@@ -6589,15 +6589,15 @@
       <c r="B341" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C341" s="48" t="s">
+      <c r="C341" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D341" s="48"/>
-      <c r="E341" s="48"/>
-      <c r="F341" s="49" t="s">
+      <c r="D341" s="45"/>
+      <c r="E341" s="45"/>
+      <c r="F341" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G341" s="50" t="s">
+      <c r="G341" s="47" t="s">
         <v>130</v>
       </c>
       <c r="H341" s="74"/>
@@ -6612,10 +6612,10 @@
       <c r="C342" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F342" s="52" t="s">
+      <c r="F342" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G342" s="50"/>
+      <c r="G342" s="47"/>
       <c r="H342" s="75"/>
     </row>
     <row r="343" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6628,10 +6628,10 @@
       <c r="C343" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F343" s="52" t="s">
+      <c r="F343" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="G343" s="50"/>
+      <c r="G343" s="47"/>
       <c r="H343" s="75"/>
     </row>
     <row r="344" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6644,10 +6644,10 @@
       <c r="C344" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F344" s="52" t="s">
+      <c r="F344" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="G344" s="50"/>
+      <c r="G344" s="47"/>
       <c r="H344" s="75"/>
     </row>
     <row r="345" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6657,16 +6657,16 @@
       <c r="B345" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C345" s="45" t="s">
+      <c r="C345" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D345" s="45"/>
-      <c r="E345" s="45"/>
-      <c r="F345" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G345" s="50"/>
-      <c r="H345" s="47"/>
+      <c r="D345" s="42"/>
+      <c r="E345" s="42"/>
+      <c r="F345" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G345" s="47"/>
+      <c r="H345" s="44"/>
     </row>
     <row r="347" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
@@ -6675,15 +6675,15 @@
       <c r="B347" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C347" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D347" s="48"/>
-      <c r="E347" s="48"/>
-      <c r="F347" s="49" t="s">
+      <c r="C347" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D347" s="45"/>
+      <c r="E347" s="45"/>
+      <c r="F347" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G347" s="50" t="s">
+      <c r="G347" s="47" t="s">
         <v>131</v>
       </c>
       <c r="H347" s="66"/>
@@ -6698,10 +6698,10 @@
       <c r="C348" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F348" s="52" t="s">
+      <c r="F348" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G348" s="50"/>
+      <c r="G348" s="47"/>
       <c r="H348" s="67"/>
     </row>
     <row r="349" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6714,10 +6714,10 @@
       <c r="C349" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F349" s="52" t="s">
+      <c r="F349" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G349" s="50"/>
+      <c r="G349" s="47"/>
       <c r="H349" s="67"/>
     </row>
     <row r="350" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6735,7 +6735,7 @@
       <c r="F350" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="G350" s="50"/>
+      <c r="G350" s="47"/>
       <c r="H350" s="67"/>
     </row>
     <row r="351" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6753,7 +6753,7 @@
       <c r="F351" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="G351" s="50"/>
+      <c r="G351" s="47"/>
       <c r="H351" s="67"/>
     </row>
     <row r="352" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,7 +6771,7 @@
       <c r="F352" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="G352" s="50"/>
+      <c r="G352" s="47"/>
       <c r="H352" s="67"/>
     </row>
     <row r="353" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6781,15 +6781,15 @@
       <c r="B353" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C353" s="45" t="s">
+      <c r="C353" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="D353" s="45"/>
-      <c r="E353" s="45"/>
-      <c r="F353" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G353" s="50"/>
+      <c r="D353" s="42"/>
+      <c r="E353" s="42"/>
+      <c r="F353" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G353" s="47"/>
       <c r="H353" s="68"/>
     </row>
     <row r="358" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6807,7 +6807,7 @@
       <c r="F358" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G358" s="50" t="s">
+      <c r="G358" s="47" t="s">
         <v>134</v>
       </c>
       <c r="H358" s="66"/>
@@ -6827,7 +6827,7 @@
       <c r="F359" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="G359" s="50"/>
+      <c r="G359" s="47"/>
       <c r="H359" s="67"/>
     </row>
     <row r="360" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6845,7 +6845,7 @@
       <c r="F360" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G360" s="50"/>
+      <c r="G360" s="47"/>
       <c r="H360" s="67"/>
     </row>
     <row r="361" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6863,7 +6863,7 @@
       <c r="F361" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G361" s="50"/>
+      <c r="G361" s="47"/>
       <c r="H361" s="67"/>
     </row>
     <row r="362" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6881,7 +6881,7 @@
       <c r="F362" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G362" s="50"/>
+      <c r="G362" s="47"/>
       <c r="H362" s="68"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6899,15 +6899,15 @@
       <c r="B364" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C364" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D364" s="48"/>
-      <c r="E364" s="48"/>
-      <c r="F364" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G364" s="50" t="s">
+      <c r="C364" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D364" s="45"/>
+      <c r="E364" s="45"/>
+      <c r="F364" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G364" s="47" t="s">
         <v>138</v>
       </c>
       <c r="H364" s="63"/>
@@ -6922,10 +6922,10 @@
       <c r="C365" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F365" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G365" s="50"/>
+      <c r="F365" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G365" s="47"/>
       <c r="H365" s="64"/>
     </row>
     <row r="366" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,10 +6938,10 @@
       <c r="C366" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F366" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G366" s="50"/>
+      <c r="F366" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G366" s="47"/>
       <c r="H366" s="64"/>
     </row>
     <row r="367" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6951,15 +6951,15 @@
       <c r="B367" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C367" s="45" t="n">
+      <c r="C367" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="D367" s="45"/>
-      <c r="E367" s="45"/>
-      <c r="F367" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G367" s="50"/>
+      <c r="D367" s="42"/>
+      <c r="E367" s="42"/>
+      <c r="F367" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G367" s="47"/>
       <c r="H367" s="65"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6985,7 +6985,7 @@
       <c r="F369" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G369" s="50" t="s">
+      <c r="G369" s="47" t="s">
         <v>139</v>
       </c>
       <c r="H369" s="66"/>
@@ -7005,7 +7005,7 @@
       <c r="F370" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G370" s="50"/>
+      <c r="G370" s="47"/>
       <c r="H370" s="67"/>
     </row>
     <row r="371" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,7 +7023,7 @@
       <c r="F371" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G371" s="50"/>
+      <c r="G371" s="47"/>
       <c r="H371" s="67"/>
     </row>
     <row r="372" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7041,7 +7041,7 @@
       <c r="F372" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G372" s="50"/>
+      <c r="G372" s="47"/>
       <c r="H372" s="67"/>
     </row>
     <row r="373" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7059,7 +7059,7 @@
       <c r="F373" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G373" s="50"/>
+      <c r="G373" s="47"/>
       <c r="H373" s="67"/>
     </row>
     <row r="374" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7077,7 +7077,7 @@
       <c r="F374" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="G374" s="50"/>
+      <c r="G374" s="47"/>
       <c r="H374" s="67"/>
     </row>
     <row r="375" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7095,7 +7095,7 @@
       <c r="F375" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="G375" s="50"/>
+      <c r="G375" s="47"/>
       <c r="H375" s="67"/>
     </row>
     <row r="376" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,7 +7113,7 @@
       <c r="F376" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G376" s="50"/>
+      <c r="G376" s="47"/>
       <c r="H376" s="68"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,15 +7131,15 @@
       <c r="B378" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C378" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D378" s="48"/>
-      <c r="E378" s="48"/>
-      <c r="F378" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G378" s="50" t="s">
+      <c r="C378" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D378" s="45"/>
+      <c r="E378" s="45"/>
+      <c r="F378" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G378" s="47" t="s">
         <v>142</v>
       </c>
       <c r="H378" s="63"/>
@@ -7154,10 +7154,10 @@
       <c r="C379" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F379" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G379" s="50"/>
+      <c r="F379" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G379" s="47"/>
       <c r="H379" s="64"/>
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7170,10 +7170,10 @@
       <c r="C380" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F380" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G380" s="50"/>
+      <c r="F380" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G380" s="47"/>
       <c r="H380" s="64"/>
     </row>
     <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7183,30 +7183,30 @@
       <c r="B381" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C381" s="45" t="n">
+      <c r="C381" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="D381" s="45"/>
-      <c r="E381" s="45"/>
-      <c r="F381" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G381" s="50"/>
+      <c r="D381" s="42"/>
+      <c r="E381" s="42"/>
+      <c r="F381" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G381" s="47"/>
       <c r="H381" s="65"/>
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A386" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B386" s="48" t="s">
+      <c r="B386" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C386" s="48" t="s">
+      <c r="C386" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D386" s="48"/>
-      <c r="E386" s="48"/>
-      <c r="F386" s="49" t="s">
+      <c r="D386" s="45"/>
+      <c r="E386" s="45"/>
+      <c r="F386" s="46" t="s">
         <v>144</v>
       </c>
       <c r="G386" s="83" t="s">
@@ -7227,7 +7227,7 @@
       <c r="D387" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F387" s="52" t="s">
+      <c r="F387" s="49" t="s">
         <v>146</v>
       </c>
       <c r="G387" s="83"/>
@@ -7246,7 +7246,7 @@
       <c r="D388" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F388" s="52" t="s">
+      <c r="F388" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G388" s="83"/>
@@ -7256,19 +7256,19 @@
       <c r="A389" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B389" s="45" t="s">
+      <c r="B389" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C389" s="45" t="s">
+      <c r="C389" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D389" s="45"/>
-      <c r="E389" s="45"/>
-      <c r="F389" s="46" t="s">
+      <c r="D389" s="42"/>
+      <c r="E389" s="42"/>
+      <c r="F389" s="43" t="s">
         <v>15</v>
       </c>
       <c r="G389" s="83"/>
-      <c r="H389" s="47"/>
+      <c r="H389" s="44"/>
     </row>
     <row r="391" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="4" t="s">
@@ -7277,15 +7277,15 @@
       <c r="B391" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C391" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D391" s="48"/>
-      <c r="E391" s="48"/>
-      <c r="F391" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G391" s="50" t="s">
+      <c r="C391" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D391" s="45"/>
+      <c r="E391" s="45"/>
+      <c r="F391" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G391" s="47" t="s">
         <v>147</v>
       </c>
       <c r="H391" s="63"/>
@@ -7300,10 +7300,10 @@
       <c r="C392" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F392" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G392" s="50"/>
+      <c r="F392" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G392" s="47"/>
       <c r="H392" s="64"/>
     </row>
     <row r="393" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7316,10 +7316,10 @@
       <c r="C393" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F393" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G393" s="50"/>
+      <c r="F393" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G393" s="47"/>
       <c r="H393" s="64"/>
     </row>
     <row r="394" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7329,33 +7329,33 @@
       <c r="B394" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C394" s="45" t="n">
+      <c r="C394" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="D394" s="45"/>
-      <c r="E394" s="45"/>
-      <c r="F394" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G394" s="50"/>
+      <c r="D394" s="42"/>
+      <c r="E394" s="42"/>
+      <c r="F394" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G394" s="47"/>
       <c r="H394" s="65"/>
     </row>
     <row r="396" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B396" s="48" t="s">
+      <c r="B396" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C396" s="48" t="s">
+      <c r="C396" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="D396" s="48"/>
-      <c r="E396" s="48"/>
-      <c r="F396" s="49" t="s">
+      <c r="D396" s="45"/>
+      <c r="E396" s="45"/>
+      <c r="F396" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="G396" s="50" t="s">
+      <c r="G396" s="47" t="s">
         <v>148</v>
       </c>
       <c r="H396" s="74"/>
@@ -7370,10 +7370,10 @@
       <c r="C397" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F397" s="52" t="s">
+      <c r="F397" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="G397" s="50"/>
+      <c r="G397" s="47"/>
       <c r="H397" s="75"/>
     </row>
     <row r="398" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7389,10 +7389,10 @@
       <c r="D398" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F398" s="52" t="s">
+      <c r="F398" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="G398" s="50"/>
+      <c r="G398" s="47"/>
       <c r="H398" s="75"/>
     </row>
     <row r="399" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7408,29 +7408,29 @@
       <c r="D399" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F399" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G399" s="50"/>
+      <c r="F399" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G399" s="47"/>
       <c r="H399" s="75"/>
     </row>
     <row r="400" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="B400" s="45" t="s">
+      <c r="B400" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="C400" s="45" t="s">
+      <c r="C400" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D400" s="45"/>
-      <c r="E400" s="45"/>
-      <c r="F400" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G400" s="50"/>
-      <c r="H400" s="47"/>
+      <c r="D400" s="42"/>
+      <c r="E400" s="42"/>
+      <c r="F400" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G400" s="47"/>
+      <c r="H400" s="44"/>
     </row>
     <row r="402" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="4" t="s">
@@ -7439,15 +7439,15 @@
       <c r="B402" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C402" s="48" t="n">
-        <v>3</v>
-      </c>
-      <c r="D402" s="48"/>
-      <c r="E402" s="48"/>
-      <c r="F402" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G402" s="50" t="s">
+      <c r="C402" s="45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D402" s="45"/>
+      <c r="E402" s="45"/>
+      <c r="F402" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G402" s="47" t="s">
         <v>151</v>
       </c>
       <c r="H402" s="63"/>
@@ -7462,10 +7462,10 @@
       <c r="C403" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F403" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G403" s="50"/>
+      <c r="F403" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G403" s="47"/>
       <c r="H403" s="64"/>
     </row>
     <row r="404" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7478,10 +7478,10 @@
       <c r="C404" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F404" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G404" s="50"/>
+      <c r="F404" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G404" s="47"/>
       <c r="H404" s="64"/>
     </row>
     <row r="405" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7491,15 +7491,15 @@
       <c r="B405" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C405" s="45" t="n">
+      <c r="C405" s="42" t="n">
         <v>6</v>
       </c>
-      <c r="D405" s="45"/>
-      <c r="E405" s="45"/>
-      <c r="F405" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G405" s="50"/>
+      <c r="D405" s="42"/>
+      <c r="E405" s="42"/>
+      <c r="F405" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G405" s="47"/>
       <c r="H405" s="65"/>
     </row>
   </sheetData>

--- a/Control_logic_Programmer/Microcode.xlsx
+++ b/Control_logic_Programmer/Microcode.xlsx
@@ -272,24 +272,8 @@
     <t xml:space="preserve">NOP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SUB @Ra Rb
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="JetBrains Mono"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">CMP @Ra Rb</t>
-    </r>
+    <t xml:space="preserve">SUB @Ra Rb
+CMP @Ra Rb</t>
   </si>
   <si>
     <t xml:space="preserve">SUB #N Rb
@@ -343,10 +327,12 @@
     <t xml:space="preserve">SHL Yout Yin SCdec GOTO6</t>
   </si>
   <si>
-    <t xml:space="preserve">SHR @Ra Rb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHR #N Ra</t>
+    <t xml:space="preserve">SHR @Ra Rb
+SHL @Ra Rb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHR #N Ra
+SHL #N Ra</t>
   </si>
   <si>
     <t xml:space="preserve">RFout DSTsel Y=A Yin MDRen MEMsel</t>
@@ -361,7 +347,8 @@
     <t xml:space="preserve">Yout Yin SHL SCdec GOTO6</t>
   </si>
   <si>
-    <t xml:space="preserve">SHR N Rb</t>
+    <t xml:space="preserve">SHR N Rb
+SHL N Rb</t>
   </si>
   <si>
     <t xml:space="preserve">RRC</t>
@@ -530,7 +517,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="JetBrains Mono"/>
@@ -550,11 +537,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="JetBrains Mono"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -975,6 +957,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -989,10 +975,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1221,9 +1203,9 @@
   <dimension ref="A1:V415"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G257" activeCellId="0" sqref="G257"/>
+      <selection pane="bottomLeft" activeCell="H146" activeCellId="0" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5314,7 +5296,7 @@
       <c r="H229" s="56"/>
       <c r="I229" s="67"/>
     </row>
-    <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="10" t="s">
         <v>94</v>
       </c>
@@ -5386,7 +5368,7 @@
       <c r="F233" s="12"/>
       <c r="G233" s="13"/>
     </row>
-    <row r="234" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="4" t="s">
         <v>94</v>
       </c>
@@ -5402,10 +5384,10 @@
       <c r="G234" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H234" s="8" t="s">
+      <c r="H234" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="I234" s="70"/>
+      <c r="I234" s="71"/>
     </row>
     <row r="235" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="10" t="s">
@@ -5420,8 +5402,8 @@
       <c r="G235" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H235" s="8"/>
-      <c r="I235" s="71"/>
+      <c r="H235" s="70"/>
+      <c r="I235" s="72"/>
     </row>
     <row r="236" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="10" t="s">
@@ -5436,32 +5418,32 @@
       <c r="G236" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H236" s="8"/>
-      <c r="I236" s="71"/>
+      <c r="H236" s="70"/>
+      <c r="I236" s="72"/>
     </row>
     <row r="237" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B237" s="72" t="n">
+      <c r="B237" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="C237" s="72" t="n">
+      <c r="C237" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
+      <c r="D237" s="73"/>
+      <c r="E237" s="73"/>
+      <c r="F237" s="73"/>
       <c r="G237" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H237" s="8"/>
-      <c r="I237" s="73"/>
+      <c r="H237" s="70"/>
+      <c r="I237" s="74"/>
     </row>
     <row r="238" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G238" s="19"/>
     </row>
-    <row r="239" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="4" t="s">
         <v>94</v>
       </c>
@@ -5477,7 +5459,7 @@
       <c r="G239" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H239" s="46" t="s">
+      <c r="H239" s="56" t="s">
         <v>101</v>
       </c>
       <c r="I239" s="66"/>
@@ -5498,7 +5480,7 @@
       <c r="G240" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H240" s="46"/>
+      <c r="H240" s="56"/>
       <c r="I240" s="67"/>
     </row>
     <row r="241" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5517,10 +5499,10 @@
       <c r="G241" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H241" s="46"/>
+      <c r="H241" s="56"/>
       <c r="I241" s="67"/>
     </row>
-    <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="10" t="s">
         <v>94</v>
       </c>
@@ -5540,10 +5522,10 @@
       <c r="G242" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H242" s="46"/>
+      <c r="H242" s="56"/>
       <c r="I242" s="67"/>
     </row>
-    <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="10" t="s">
         <v>94</v>
       </c>
@@ -5563,7 +5545,7 @@
       <c r="G243" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="H243" s="46"/>
+      <c r="H243" s="56"/>
       <c r="I243" s="67"/>
     </row>
     <row r="244" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5566,7 @@
       <c r="G244" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H244" s="46"/>
+      <c r="H244" s="56"/>
       <c r="I244" s="67"/>
     </row>
     <row r="245" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,13 +5585,13 @@
       <c r="G245" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="H245" s="46"/>
+      <c r="H245" s="56"/>
       <c r="I245" s="68"/>
     </row>
     <row r="246" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G246" s="19"/>
     </row>
-    <row r="247" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="4" t="s">
         <v>94</v>
       </c>
@@ -5625,10 +5607,10 @@
       <c r="G247" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H247" s="8" t="s">
+      <c r="H247" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="I247" s="70"/>
+      <c r="I247" s="71"/>
     </row>
     <row r="248" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="10" t="s">
@@ -5643,8 +5625,8 @@
       <c r="G248" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H248" s="8"/>
-      <c r="I248" s="71"/>
+      <c r="H248" s="70"/>
+      <c r="I248" s="72"/>
     </row>
     <row r="249" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="10" t="s">
@@ -5659,27 +5641,27 @@
       <c r="G249" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H249" s="8"/>
-      <c r="I249" s="71"/>
+      <c r="H249" s="70"/>
+      <c r="I249" s="72"/>
     </row>
     <row r="250" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B250" s="72" t="n">
-        <v>3</v>
-      </c>
-      <c r="C250" s="72" t="n">
+      <c r="B250" s="73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C250" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
+      <c r="D250" s="73"/>
+      <c r="E250" s="73"/>
+      <c r="F250" s="73"/>
       <c r="G250" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H250" s="8"/>
-      <c r="I250" s="73"/>
+      <c r="H250" s="70"/>
+      <c r="I250" s="74"/>
     </row>
     <row r="251" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G251" s="19"/>
@@ -5709,12 +5691,12 @@
       <c r="G255" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H255" s="74" t="s">
+      <c r="H255" s="70" t="s">
         <v>108</v>
       </c>
       <c r="I255" s="75"/>
     </row>
-    <row r="256" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="10" t="s">
         <v>107</v>
       </c>
@@ -5727,10 +5709,10 @@
       <c r="G256" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H256" s="74"/>
+      <c r="H256" s="70"/>
       <c r="I256" s="76"/>
     </row>
-    <row r="257" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="10" t="s">
         <v>107</v>
       </c>
@@ -5743,10 +5725,10 @@
       <c r="G257" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H257" s="74"/>
+      <c r="H257" s="70"/>
       <c r="I257" s="76"/>
     </row>
-    <row r="258" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="10" t="s">
         <v>107</v>
       </c>
@@ -5765,10 +5747,10 @@
       <c r="G258" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H258" s="74"/>
+      <c r="H258" s="70"/>
       <c r="I258" s="76"/>
     </row>
-    <row r="259" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="10" t="s">
         <v>107</v>
       </c>
@@ -5787,10 +5769,10 @@
       <c r="G259" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H259" s="74"/>
+      <c r="H259" s="70"/>
       <c r="I259" s="76"/>
     </row>
-    <row r="260" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="10" t="s">
         <v>107</v>
       </c>
@@ -5806,26 +5788,26 @@
       <c r="G260" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="H260" s="74"/>
+      <c r="H260" s="70"/>
       <c r="I260" s="76"/>
     </row>
-    <row r="261" s="36" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" s="36" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B261" s="72" t="n">
+      <c r="B261" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="C261" s="72" t="n">
+      <c r="C261" s="73" t="n">
         <v>7</v>
       </c>
-      <c r="D261" s="72"/>
-      <c r="E261" s="72"/>
-      <c r="F261" s="72"/>
+      <c r="D261" s="73"/>
+      <c r="E261" s="73"/>
+      <c r="F261" s="73"/>
       <c r="G261" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H261" s="74"/>
+      <c r="H261" s="70"/>
       <c r="I261" s="77"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5856,7 +5838,7 @@
       <c r="H263" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="I263" s="70"/>
+      <c r="I263" s="71"/>
     </row>
     <row r="264" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="10" t="s">
@@ -5872,7 +5854,7 @@
         <v>16</v>
       </c>
       <c r="H264" s="8"/>
-      <c r="I264" s="71"/>
+      <c r="I264" s="72"/>
     </row>
     <row r="265" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="10" t="s">
@@ -5888,26 +5870,26 @@
         <v>16</v>
       </c>
       <c r="H265" s="8"/>
-      <c r="I265" s="71"/>
+      <c r="I265" s="72"/>
     </row>
     <row r="266" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B266" s="72" t="n">
+      <c r="B266" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="C266" s="72" t="n">
+      <c r="C266" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="D266" s="72"/>
-      <c r="E266" s="72"/>
-      <c r="F266" s="72"/>
+      <c r="D266" s="73"/>
+      <c r="E266" s="73"/>
+      <c r="F266" s="73"/>
       <c r="G266" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H266" s="8"/>
-      <c r="I266" s="73"/>
+      <c r="I266" s="74"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="11"/>
@@ -5937,9 +5919,9 @@
       <c r="H268" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="I268" s="66"/>
-    </row>
-    <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I268" s="78"/>
+    </row>
+    <row r="269" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="10" t="s">
         <v>107</v>
       </c>
@@ -5956,9 +5938,9 @@
         <v>102</v>
       </c>
       <c r="H269" s="56"/>
-      <c r="I269" s="67"/>
-    </row>
-    <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I269" s="79"/>
+    </row>
+    <row r="270" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="10" t="s">
         <v>107</v>
       </c>
@@ -5975,9 +5957,9 @@
         <v>103</v>
       </c>
       <c r="H270" s="56"/>
-      <c r="I270" s="67"/>
-    </row>
-    <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I270" s="79"/>
+    </row>
+    <row r="271" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="10" t="s">
         <v>107</v>
       </c>
@@ -5998,9 +5980,9 @@
         <v>113</v>
       </c>
       <c r="H271" s="56"/>
-      <c r="I271" s="67"/>
-    </row>
-    <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I271" s="79"/>
+    </row>
+    <row r="272" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="10" t="s">
         <v>107</v>
       </c>
@@ -6021,9 +6003,9 @@
         <v>114</v>
       </c>
       <c r="H272" s="56"/>
-      <c r="I272" s="67"/>
-    </row>
-    <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I272" s="79"/>
+    </row>
+    <row r="273" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="10" t="s">
         <v>107</v>
       </c>
@@ -6042,9 +6024,9 @@
         <v>15</v>
       </c>
       <c r="H273" s="56"/>
-      <c r="I273" s="67"/>
-    </row>
-    <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I273" s="79"/>
+    </row>
+    <row r="274" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="14" t="s">
         <v>107</v>
       </c>
@@ -6061,7 +6043,7 @@
         <v>16</v>
       </c>
       <c r="H274" s="56"/>
-      <c r="I274" s="68"/>
+      <c r="I274" s="43"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="11"/>
@@ -6091,7 +6073,7 @@
       <c r="H276" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="I276" s="70"/>
+      <c r="I276" s="71"/>
     </row>
     <row r="277" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="10" t="s">
@@ -6107,7 +6089,7 @@
         <v>16</v>
       </c>
       <c r="H277" s="8"/>
-      <c r="I277" s="71"/>
+      <c r="I277" s="72"/>
     </row>
     <row r="278" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="10" t="s">
@@ -6123,26 +6105,26 @@
         <v>16</v>
       </c>
       <c r="H278" s="8"/>
-      <c r="I278" s="71"/>
+      <c r="I278" s="72"/>
     </row>
     <row r="279" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B279" s="72" t="n">
-        <v>3</v>
-      </c>
-      <c r="C279" s="72" t="n">
+      <c r="B279" s="73" t="n">
+        <v>3</v>
+      </c>
+      <c r="C279" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="D279" s="72"/>
-      <c r="E279" s="72"/>
-      <c r="F279" s="72"/>
+      <c r="D279" s="73"/>
+      <c r="E279" s="73"/>
+      <c r="F279" s="73"/>
       <c r="G279" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H279" s="8"/>
-      <c r="I279" s="73"/>
+      <c r="I279" s="74"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="11"/>

--- a/Control_logic_Programmer/Microcode.xlsx
+++ b/Control_logic_Programmer/Microcode.xlsx
@@ -540,7 +540,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -569,6 +569,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF860D"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,7 +682,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="89">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,6 +1021,22 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1072,7 +1094,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF860D"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -1202,10 +1224,10 @@
   </sheetPr>
   <dimension ref="A1:V415"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H146" activeCellId="0" sqref="H146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="K52" activeCellId="0" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2271,7 +2293,7 @@
       <c r="H51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="27"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
@@ -2290,7 +2312,7 @@
         <v>10</v>
       </c>
       <c r="H52" s="8"/>
-      <c r="I52" s="29"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
@@ -2309,7 +2331,7 @@
         <v>23</v>
       </c>
       <c r="H53" s="8"/>
-      <c r="I53" s="29"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
@@ -2328,7 +2350,7 @@
         <v>10</v>
       </c>
       <c r="H54" s="8"/>
-      <c r="I54" s="29"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
@@ -2347,7 +2369,7 @@
         <v>23</v>
       </c>
       <c r="H55" s="8"/>
-      <c r="I55" s="29"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
@@ -2366,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="H56" s="8"/>
-      <c r="I56" s="29"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
@@ -2385,7 +2407,7 @@
         <v>28</v>
       </c>
       <c r="H57" s="8"/>
-      <c r="I57" s="29"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="14" t="s">
@@ -2395,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C58" s="15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16"/>
@@ -2404,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="H58" s="8"/>
-      <c r="I58" s="32"/>
+      <c r="I58" s="26"/>
     </row>
     <row r="59" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11"/>
@@ -3377,7 +3399,7 @@
       <c r="H115" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I115" s="27"/>
+      <c r="I115" s="24"/>
     </row>
     <row r="116" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
@@ -3396,7 +3418,7 @@
         <v>47</v>
       </c>
       <c r="H116" s="8"/>
-      <c r="I116" s="29"/>
+      <c r="I116" s="25"/>
     </row>
     <row r="117" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
@@ -3415,7 +3437,7 @@
         <v>10</v>
       </c>
       <c r="H117" s="8"/>
-      <c r="I117" s="29"/>
+      <c r="I117" s="25"/>
     </row>
     <row r="118" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
@@ -3434,7 +3456,7 @@
         <v>55</v>
       </c>
       <c r="H118" s="8"/>
-      <c r="I118" s="29"/>
+      <c r="I118" s="25"/>
     </row>
     <row r="119" s="18" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="14" t="s">
@@ -3453,7 +3475,7 @@
         <v>16</v>
       </c>
       <c r="H119" s="8"/>
-      <c r="I119" s="32"/>
+      <c r="I119" s="26"/>
     </row>
     <row r="120" s="18" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11"/>
@@ -7348,8 +7370,8 @@
       <c r="H363" s="46"/>
       <c r="I363" s="68"/>
     </row>
-    <row r="368" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="4" t="s">
+    <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="85" t="s">
         <v>139</v>
       </c>
       <c r="B368" s="5" t="n">
@@ -7554,7 +7576,7 @@
       <c r="H379" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="I379" s="66"/>
+      <c r="I379" s="86"/>
     </row>
     <row r="380" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="10" t="s">
@@ -7573,7 +7595,7 @@
         <v>10</v>
       </c>
       <c r="H380" s="46"/>
-      <c r="I380" s="67"/>
+      <c r="I380" s="87"/>
     </row>
     <row r="381" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="10" t="s">
@@ -7592,7 +7614,7 @@
         <v>51</v>
       </c>
       <c r="H381" s="46"/>
-      <c r="I381" s="67"/>
+      <c r="I381" s="87"/>
     </row>
     <row r="382" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="10" t="s">
@@ -7611,7 +7633,7 @@
         <v>140</v>
       </c>
       <c r="H382" s="46"/>
-      <c r="I382" s="67"/>
+      <c r="I382" s="87"/>
     </row>
     <row r="383" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="10" t="s">
@@ -7630,7 +7652,7 @@
         <v>147</v>
       </c>
       <c r="H383" s="46"/>
-      <c r="I383" s="67"/>
+      <c r="I383" s="87"/>
     </row>
     <row r="384" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="10" t="s">
@@ -7649,7 +7671,7 @@
         <v>148</v>
       </c>
       <c r="H384" s="46"/>
-      <c r="I384" s="67"/>
+      <c r="I384" s="87"/>
     </row>
     <row r="385" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="10" t="s">
@@ -7668,7 +7690,7 @@
         <v>143</v>
       </c>
       <c r="H385" s="46"/>
-      <c r="I385" s="67"/>
+      <c r="I385" s="87"/>
     </row>
     <row r="386" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
@@ -7687,7 +7709,7 @@
         <v>16</v>
       </c>
       <c r="H386" s="46"/>
-      <c r="I386" s="68"/>
+      <c r="I386" s="88"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="11"/>
